--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>BACI</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>SteelElectricFurnace</t>
+  </si>
+  <si>
+    <t>Coef</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,6 +490,9 @@
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -582,6 +588,9 @@
       <c r="C11">
         <v>0.15</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -593,6 +602,9 @@
       <c r="C12">
         <v>0.15</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -605,6 +617,9 @@
       <c r="C13">
         <v>0.15</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -617,6 +632,9 @@
       <c r="C14">
         <v>0.15</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -629,6 +647,9 @@
       <c r="C15">
         <v>0.15</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -641,6 +662,9 @@
       <c r="C16">
         <v>0.15</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -653,6 +677,9 @@
       <c r="C17">
         <v>0.15</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -665,6 +692,9 @@
       <c r="C18">
         <v>0.15</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -677,6 +707,9 @@
       <c r="C19">
         <v>0.15</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -689,6 +722,9 @@
       <c r="C20">
         <v>0.15</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -700,6 +736,9 @@
       <c r="C21">
         <v>0.15</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -711,6 +750,9 @@
       <c r="C22">
         <v>0.15</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -722,6 +764,9 @@
       <c r="C23">
         <v>0.15</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -733,6 +778,9 @@
       <c r="C24">
         <v>0.15</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -744,6 +792,9 @@
       <c r="C25">
         <v>0.15</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -755,6 +806,9 @@
       <c r="C26">
         <v>0.15</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -766,6 +820,9 @@
       <c r="C27">
         <v>0.15</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -777,6 +834,9 @@
       <c r="C28">
         <v>0.15</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -788,6 +848,9 @@
       <c r="C29">
         <v>0.15</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -799,6 +862,9 @@
       <c r="C30">
         <v>0.15</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -810,6 +876,9 @@
       <c r="C31">
         <v>0.15</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -821,8 +890,11 @@
       <c r="C32">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -832,8 +904,11 @@
       <c r="C33">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -843,8 +918,11 @@
       <c r="C34">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -854,8 +932,11 @@
       <c r="C35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -865,8 +946,11 @@
       <c r="C36">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -875,6 +959,9 @@
       </c>
       <c r="C37">
         <v>0.15</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>BACI</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Coef</t>
+  </si>
+  <si>
+    <t>Const</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,6 +494,9 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -502,6 +508,9 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -531,6 +540,9 @@
       <c r="C5">
         <v>0.05</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -561,6 +573,9 @@
       <c r="C8">
         <v>0.1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -583,12 +598,15 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.15</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
@@ -597,12 +615,15 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0.15</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
@@ -612,12 +633,15 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.15</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
@@ -627,12 +651,15 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0.15</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
@@ -642,12 +669,15 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0.15</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
@@ -657,12 +687,15 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0.15</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
@@ -672,12 +705,15 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.15</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
@@ -687,12 +723,15 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0.15</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
@@ -702,12 +741,15 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0.15</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
@@ -717,12 +759,15 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0.15</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
@@ -731,12 +776,15 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.15</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
@@ -745,12 +793,15 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0.15</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
@@ -759,12 +810,15 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0.15</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
     </row>
@@ -773,12 +827,15 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0.15</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
     </row>
@@ -787,12 +844,15 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0.15</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
@@ -801,12 +861,15 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.15</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
@@ -815,12 +878,15 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.15</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
@@ -829,12 +895,15 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.15</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
@@ -843,12 +912,15 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0.15</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
@@ -857,12 +929,15 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0.15</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
@@ -871,12 +946,15 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0.15</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
@@ -885,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0.15</v>
@@ -893,13 +971,16 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.15</v>
@@ -907,13 +988,16 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.15</v>
@@ -921,13 +1005,16 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0.15</v>
@@ -935,13 +1022,16 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0.15</v>
@@ -949,18 +1039,24 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0.15</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -651,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -759,10 +759,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -776,10 +776,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -844,10 +844,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -861,10 +861,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -878,10 +878,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -963,10 +963,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1014,10 +1014,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -615,7 +615,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -687,7 +687,7 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -793,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0.5</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -45,9 +45,6 @@
     <t>PrimaryInputEqualsFinalUse</t>
   </si>
   <si>
-    <t>RatioConstraints</t>
-  </si>
-  <si>
     <t>Minimum</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Const</t>
+  </si>
+  <si>
+    <t>RatiosBlastFurnace</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,19 +485,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -587,15 +587,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>5</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,16 +474,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,7 +500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,12 +514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,21 +530,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.25</v>
       </c>
-      <c r="C5">
-        <v>0.05</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -563,21 +563,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -593,7 +593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -628,7 +628,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -646,7 +646,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -700,7 +700,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,16 +474,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,7 +500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,12 +514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -593,15 +593,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -610,15 +610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -628,15 +628,15 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -646,15 +646,15 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -664,15 +664,15 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -682,15 +682,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -700,15 +700,15 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -718,15 +718,15 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -736,15 +736,15 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -754,15 +754,15 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -771,15 +771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -788,15 +788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -805,15 +805,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -822,15 +822,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -839,15 +839,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -856,15 +856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -873,15 +873,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -890,15 +890,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -907,15 +907,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -924,15 +924,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -941,15 +941,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -958,15 +958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -975,15 +975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -992,15 +992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1009,15 +1009,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1026,15 +1026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1043,15 +1043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,10 +598,10 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -651,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -759,10 +759,10 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -776,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -793,10 +793,10 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -844,10 +844,10 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -861,10 +861,10 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -878,10 +878,10 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -963,10 +963,10 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1014,10 +1014,10 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,16 +474,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,7 +500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,18 +508,18 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -563,21 +563,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -593,15 +593,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -610,15 +610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -628,7 +628,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -646,7 +646,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -682,15 +682,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -700,15 +700,15 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -718,15 +718,15 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,15 +788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +598,10 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>

--- a/Settings/datafeeds_settings/df_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/df_RSE_settings.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -535,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -651,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -759,10 +759,10 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -776,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -793,10 +793,10 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -844,10 +844,10 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -861,10 +861,10 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -878,10 +878,10 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -963,10 +963,10 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1014,10 +1014,10 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>1</v>
